--- a/InputData/acronym-key - 2.0 Data collection status.xlsx
+++ b/InputData/acronym-key - 2.0 Data collection status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="650" documentId="11_D1D127A6F92FA3437A4AED662F748F1322AC704B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{F64698DB-517A-42BE-9D05-52FBF6B2A736}"/>
+  <xr:revisionPtr revIDLastSave="670" documentId="11_D1D127A6F92FA3437A4AED662F748F1322AC704B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D390BB2B-0081-4FC1-8088-BA149E9CDC72}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1530" windowWidth="20460" windowHeight="11490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Key to Variables'!$A$1:$L$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Key to Variables'!$A$1:$L$191</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="627">
   <si>
     <t>Acronym Key</t>
   </si>
@@ -1934,6 +1934,15 @@
   </si>
   <si>
     <t>Comlete; Updated Taxi</t>
+  </si>
+  <si>
+    <t>? Need to update for rural/urban residential per other building data?</t>
+  </si>
+  <si>
+    <t>use US data [NEED UPDATE TO BE CONSISTENT WITH BFCpUEbS)</t>
+  </si>
+  <si>
+    <t>LCFS</t>
   </si>
 </sst>
 </file>
@@ -3022,18 +3031,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Input Data Variables"/>
       <sheetName val="Field Codes"/>
-      <sheetName val="checking"/>
-      <sheetName val="forTN"/>
-      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3396,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,13 +3800,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L193"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E173" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H181" sqref="H181"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G146" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98 I93 I89:I90 I118:I124 I108:I110 I112:I115 I186:I188 I2:I4 I78:I87 I127:I137 H108 I54:I76 I140:I156 I158:I160 I162:I165 I168:I173 I190:I191 I175:I183 H38 H42 H55 H57 H71 H73 H75 H49:H51 I26:I52 H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,7 +3858,7 @@
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>81</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="34" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>90</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="29" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>90</v>
       </c>
@@ -4060,11 +4062,14 @@
       <c r="F9" s="30" t="s">
         <v>32</v>
       </c>
+      <c r="H9" s="29" t="s">
+        <v>624</v>
+      </c>
       <c r="I9" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
@@ -4087,7 +4092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
@@ -4110,7 +4115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>90</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
@@ -4211,7 +4216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -4329,7 +4334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>90</v>
       </c>
@@ -4378,7 +4383,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
@@ -4401,7 +4406,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="31" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>90</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>90</v>
       </c>
@@ -4444,7 +4449,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
@@ -4470,7 +4475,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>147</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>147</v>
       </c>
@@ -4527,7 +4532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>157</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>157</v>
       </c>
@@ -4579,7 +4584,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="25" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>163</v>
       </c>
@@ -4654,7 +4659,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="27" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="27" customFormat="1" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>163</v>
       </c>
@@ -4685,7 +4690,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
         <v>175</v>
       </c>
@@ -4708,7 +4713,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="59" t="s">
         <v>175</v>
       </c>
@@ -4731,334 +4736,320 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+    <row r="37" spans="1:12" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="68"/>
+      <c r="I37" s="66"/>
+    </row>
+    <row r="38" spans="1:12" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B38" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C38" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F38" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="H38" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="I38" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="59" t="s">
+      <c r="J38" s="59" t="s">
         <v>602</v>
       </c>
-      <c r="K37" s="59" t="s">
+      <c r="K38" s="59" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="63" t="s">
+    <row r="39" spans="1:12" s="63" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B39" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C39" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F39" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G39" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H39" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="I39" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J39" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="K38" s="63" t="s">
+      <c r="K39" s="63" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="K39" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
         <v>175</v>
       </c>
       <c r="B40" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C41" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="D41" s="3"/>
+      <c r="F41" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H41" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I41" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J41" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="K40" s="70" t="s">
+      <c r="K41" s="70" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+    <row r="42" spans="1:12" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B42" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C42" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="D42" s="3"/>
+      <c r="F42" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H42" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I42" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J41" s="59" t="s">
+      <c r="J42" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="K41" s="59" t="s">
+      <c r="K42" s="59" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+    <row r="43" spans="1:12" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B43" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C43" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="D43" s="3"/>
+      <c r="F43" s="68" t="s">
         <v>41</v>
-      </c>
-      <c r="I42" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="J42" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="K42" s="59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="59" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>190</v>
       </c>
       <c r="I43" s="66" t="s">
         <v>84</v>
       </c>
       <c r="J43" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="K43" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="59" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K43" s="59" t="s">
+      <c r="C44" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+      <c r="D44" s="3"/>
+      <c r="F44" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="K44" s="59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B45" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C45" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="D45" s="3"/>
+      <c r="F45" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H45" s="59" t="s">
         <v>199</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="K44" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="59" t="s">
-        <v>88</v>
       </c>
       <c r="I45" s="61" t="s">
         <v>88</v>
       </c>
       <c r="J45" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K45" s="59" t="s">
+      <c r="C46" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>225</v>
+      <c r="D46" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="F46" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="61" t="s">
+      <c r="H46" s="59" t="s">
         <v>88</v>
       </c>
       <c r="I46" s="61" t="s">
         <v>88</v>
       </c>
       <c r="J46" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="K46" s="59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="K46" s="59" t="s">
+      <c r="C47" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="L46" s="59" t="s">
+      <c r="D47" s="3"/>
+      <c r="F47" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="59" t="s">
+        <v>225</v>
+      </c>
+      <c r="L47" s="59" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="59" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+    <row r="48" spans="1:12" s="59" customFormat="1" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B48" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C48" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="D48" s="3"/>
+      <c r="F48" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="G48" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="H47" s="73" t="s">
+      <c r="H48" s="73" t="s">
         <v>336</v>
       </c>
-      <c r="I47" s="66" t="s">
+      <c r="I48" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="J47" s="59" t="s">
+      <c r="J48" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="K47" s="59" t="s">
+      <c r="K48" s="59" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59" t="s">
+    <row r="49" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B49" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C49" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="K48" s="59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>239</v>
-      </c>
+      <c r="D49" s="3"/>
       <c r="F49" s="60" t="s">
         <v>21</v>
       </c>
@@ -5069,22 +5060,23 @@
         <v>88</v>
       </c>
       <c r="J49" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="K49" s="59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="K49" s="59" t="s">
+      <c r="C50" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B50" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>243</v>
-      </c>
+      <c r="D50" s="3"/>
       <c r="F50" s="60" t="s">
         <v>21</v>
       </c>
@@ -5092,426 +5084,437 @@
         <v>88</v>
       </c>
       <c r="I50" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="K50" s="59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="F51" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="59" t="s">
+    <row r="52" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B52" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C52" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D52" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="62" t="s">
+      <c r="F52" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="H52" s="83" t="s">
         <v>618</v>
       </c>
-      <c r="I51" s="61" t="s">
+      <c r="I52" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J51" s="59" t="s">
+      <c r="J52" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="K51" s="59" t="s">
+      <c r="K52" s="59" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+    <row r="53" spans="1:11" s="63" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B53" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C53" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="D53" s="31"/>
+      <c r="F53" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I52" s="63" t="s">
+      <c r="I53" s="63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F53" s="79" t="s">
+      <c r="F54" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="I53" s="80" t="s">
+      <c r="I54" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="59" t="s">
+    <row r="55" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B55" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C55" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D55" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F54" s="60" t="s">
+      <c r="F55" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="78" t="s">
+      <c r="H55" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="61" t="s">
+      <c r="I55" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J54" s="59" t="s">
+      <c r="J55" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="K54" s="59" t="s">
+      <c r="K55" s="59" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
+    <row r="56" spans="1:11" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B56" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C56" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D56" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F55" s="68" t="s">
+      <c r="F56" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="66" t="s">
+      <c r="I56" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J55" s="59" t="s">
+      <c r="J56" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="K55" s="59" t="s">
+      <c r="K56" s="59" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="59" t="s">
+    <row r="57" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B57" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C57" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D57" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F56" s="60" t="s">
+      <c r="F57" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="78" t="s">
+      <c r="H57" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="I56" s="61" t="s">
+      <c r="I57" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="59" t="s">
+      <c r="J57" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="K56" s="59" t="s">
+      <c r="K57" s="59" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59" t="s">
+    <row r="58" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="59" t="s">
+      <c r="B58" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C57" s="59" t="s">
+      <c r="C58" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F57" s="62" t="s">
+      <c r="D58" s="3"/>
+      <c r="F58" s="62" t="s">
         <v>32</v>
-      </c>
-      <c r="I57" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="J57" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="K57" s="59" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F58" s="68" t="s">
-        <v>41</v>
       </c>
       <c r="I58" s="66" t="s">
         <v>84</v>
       </c>
       <c r="J58" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="K58" s="59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="K58" s="59" t="s">
+      <c r="C59" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="59" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="59" t="s">
-        <v>279</v>
-      </c>
+      <c r="D59" s="3"/>
       <c r="F59" s="68" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="I59" s="66" t="s">
         <v>84</v>
       </c>
       <c r="J59" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="K59" s="59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="59" customFormat="1" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="K59" s="77" t="s">
+      <c r="C60" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>282</v>
+      <c r="D60" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="F60" s="68" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="I60" s="66" t="s">
         <v>84</v>
       </c>
       <c r="J60" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="K60" s="77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="K60" s="59" t="s">
+      <c r="C61" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="59" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="G61" s="59" t="s">
-        <v>285</v>
+      <c r="D61" s="3"/>
+      <c r="F61" s="68" t="s">
+        <v>41</v>
       </c>
       <c r="I61" s="66" t="s">
         <v>84</v>
       </c>
       <c r="J61" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="K61" s="59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="59" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K61" s="59" t="s">
+      <c r="C62" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="59" t="s">
+      <c r="D62" s="3"/>
+      <c r="F62" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="K62" s="59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B63" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C62" s="59" t="s">
+      <c r="C63" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F62" s="76" t="s">
+      <c r="D63" s="3"/>
+      <c r="F63" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H63" s="59" t="s">
         <v>288</v>
       </c>
-      <c r="I62" s="66" t="s">
+      <c r="I63" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="J62" s="59" t="s">
+      <c r="J63" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="K62" s="59" t="s">
+      <c r="K63" s="59" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+    <row r="64" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B64" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C64" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="D64" s="3"/>
+      <c r="F64" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H64" s="59" t="s">
         <v>291</v>
       </c>
-      <c r="I63" s="61" t="s">
+      <c r="I64" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J63" s="59" t="s">
+      <c r="J64" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="K63" s="59" t="s">
+      <c r="K64" s="59" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+    <row r="65" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B65" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="59" t="s">
+      <c r="C65" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F64" s="68" t="s">
+      <c r="D65" s="3"/>
+      <c r="F65" s="68" t="s">
         <v>41</v>
-      </c>
-      <c r="I64" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="J64" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="K64" s="59" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>295</v>
-      </c>
-      <c r="F65" s="62" t="s">
-        <v>32</v>
       </c>
       <c r="I65" s="66" t="s">
         <v>84</v>
       </c>
       <c r="J65" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="K65" s="59" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="59" t="s">
+      <c r="C66" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63" t="s">
+      <c r="D66" s="3"/>
+      <c r="F66" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="J66" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="K66" s="59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="63" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B67" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C67" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="F66" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="63" t="s">
-        <v>614</v>
-      </c>
-      <c r="I66" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="J66" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="K66" s="63" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>299</v>
-      </c>
+      <c r="D67" s="31"/>
       <c r="F67" s="64" t="s">
         <v>41</v>
       </c>
@@ -5522,276 +5525,286 @@
         <v>84</v>
       </c>
       <c r="J67" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="K67" s="63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="63" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="K67" s="63" t="s">
+      <c r="C68" s="31" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" s="59" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
+      <c r="D68" s="31"/>
+      <c r="F68" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" s="63" t="s">
+        <v>614</v>
+      </c>
+      <c r="I68" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="J68" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="K68" s="63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="59" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="59" t="s">
+      <c r="B69" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="59" t="s">
+      <c r="C69" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F68" s="65" t="s">
+      <c r="D69" s="3"/>
+      <c r="F69" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G69" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="I68" s="66" t="s">
+      <c r="I69" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J68" s="59" t="s">
+      <c r="J69" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="K68" s="59" t="s">
+      <c r="K69" s="59" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="59" t="s">
+    <row r="70" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="B70" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C70" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="D70" s="3"/>
+      <c r="F70" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H69" s="59" t="s">
+      <c r="H70" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="I69" s="61" t="s">
+      <c r="I70" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J69" s="59" t="s">
+      <c r="J70" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="K69" s="59" t="s">
+      <c r="K70" s="59" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
+    <row r="71" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B71" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C71" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F70" s="68" t="s">
+      <c r="D71" s="3"/>
+      <c r="F71" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H70" s="66" t="s">
+      <c r="H71" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="I70" s="66" t="s">
+      <c r="I71" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="J70" s="59" t="s">
+      <c r="J71" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="K70" s="70" t="s">
+      <c r="K71" s="70" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="59" t="s">
+    <row r="72" spans="1:11" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="B72" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C72" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D71" s="59" t="s">
+      <c r="D72" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F71" s="62" t="s">
+      <c r="F72" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="I71" s="66" t="s">
+      <c r="I72" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J71" s="59" t="s">
+      <c r="J72" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="K71" s="59" t="s">
+      <c r="K72" s="59" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59" t="s">
+    <row r="73" spans="1:11" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="59" t="s">
+      <c r="B73" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C73" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F72" s="62" t="s">
+      <c r="D73" s="3"/>
+      <c r="F73" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="I72" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="J72" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="K72" s="70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="59" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="D73" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="F73" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="59" t="s">
+      <c r="H73" s="66" t="s">
         <v>88</v>
       </c>
       <c r="I73" s="66" t="s">
         <v>88</v>
       </c>
       <c r="J73" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="K73" s="70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="59" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K73" s="59" t="s">
+      <c r="C74" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="59" t="s">
+      <c r="D74" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J74" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="K74" s="59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="59" t="s">
+      <c r="B75" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C75" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F74" s="60" t="s">
+      <c r="D75" s="3"/>
+      <c r="F75" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="66" t="s">
+      <c r="H75" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="I74" s="61" t="s">
+      <c r="I75" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="J74" s="59" t="s">
+      <c r="J75" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="K74" s="59" t="s">
+      <c r="K75" s="59" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="59" t="s">
+    <row r="76" spans="1:11" s="59" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B76" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C76" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F75" s="62" t="s">
+      <c r="D76" s="3"/>
+      <c r="F76" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="I75" s="66" t="s">
+      <c r="I76" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="J75" s="59" t="s">
+      <c r="J76" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="K75" s="59" t="s">
+      <c r="K76" s="59" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="31" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
+    <row r="77" spans="1:11" s="31" customFormat="1" ht="120.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B77" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C77" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D77" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E76" s="41"/>
-      <c r="F76" s="42" t="s">
+      <c r="E77" s="41"/>
+      <c r="F77" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="41" t="s">
+      <c r="G77" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="I76" s="31" t="s">
+      <c r="I77" s="31" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>41</v>
@@ -5800,21 +5813,21 @@
         <v>84</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>41</v>
@@ -5823,21 +5836,21 @@
         <v>84</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>41</v>
@@ -5846,21 +5859,21 @@
         <v>84</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>41</v>
@@ -5869,21 +5882,21 @@
         <v>84</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>41</v>
@@ -5892,21 +5905,21 @@
         <v>84</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>41</v>
@@ -5915,21 +5928,21 @@
         <v>84</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>41</v>
@@ -5938,415 +5951,420 @@
         <v>84</v>
       </c>
       <c r="J84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G85" s="18"/>
       <c r="I85" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="C86" s="18" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F86" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="86" t="s">
-        <v>608</v>
-      </c>
-      <c r="I86" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="J86" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="K86" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="18"/>
+      <c r="I86" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="31" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F87" s="84" t="s">
         <v>21</v>
       </c>
       <c r="H87" s="86" t="s">
-        <v>612</v>
-      </c>
-      <c r="I87" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="I87" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="K87" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="31" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F88" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H88" s="87" t="s">
-        <v>619</v>
-      </c>
-      <c r="I88" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="J88" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="K88" s="31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="86" t="s">
+        <v>612</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="31" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>335</v>
       </c>
       <c r="F89" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="H89" s="86" t="s">
-        <v>339</v>
+      <c r="H89" s="87" t="s">
+        <v>619</v>
       </c>
       <c r="I89" s="85" t="s">
         <v>88</v>
       </c>
       <c r="J89" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I90" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F90" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="I90" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="K90" s="31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>32</v>
+        <v>341</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="I91" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="I92" s="38" t="s">
+      <c r="I93" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>348</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="I93" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" s="31" t="s">
+        <v>625</v>
       </c>
       <c r="I94" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>101</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I95" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>101</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I96" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H97" s="92" t="s">
+      <c r="H98" s="92" t="s">
         <v>622</v>
       </c>
-      <c r="I97" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J97" s="2" t="s">
+      <c r="I98" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K97" s="28" t="s">
+      <c r="K98" s="28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
+    <row r="99" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B99" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C99" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D99" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26" t="s">
+      <c r="E99" s="25"/>
+      <c r="F99" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G98" s="25"/>
-      <c r="H98" s="2" t="s">
+      <c r="G99" s="25"/>
+      <c r="H99" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="I98" s="31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="C99" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="I99" s="31" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="50"/>
-      <c r="H100" s="29" t="s">
-        <v>615</v>
-      </c>
-      <c r="I100" s="29" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="H100" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I100" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="50"/>
-      <c r="F101" s="52" t="s">
-        <v>41</v>
+      <c r="F101" s="51" t="s">
+        <v>32</v>
       </c>
       <c r="G101" s="50"/>
-      <c r="H101" s="29"/>
+      <c r="H101" s="29" t="s">
+        <v>615</v>
+      </c>
       <c r="I101" s="29" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D102" s="50"/>
       <c r="E102" s="50"/>
@@ -6359,19 +6377,17 @@
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="D103" s="50" t="s">
-        <v>376</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D103" s="50"/>
       <c r="E103" s="50"/>
       <c r="F103" s="52" t="s">
         <v>41</v>
@@ -6382,17 +6398,19 @@
         <v>605</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="D104" s="50"/>
+        <v>375</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>376</v>
+      </c>
       <c r="E104" s="50"/>
       <c r="F104" s="52" t="s">
         <v>41</v>
@@ -6403,399 +6421,394 @@
         <v>605</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
         <v>367</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D105" s="50"/>
       <c r="E105" s="50"/>
-      <c r="F105" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G105" s="50" t="s">
-        <v>381</v>
-      </c>
+      <c r="F105" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="50"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="13" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="48" t="s">
+    <row r="106" spans="1:11" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="B106" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="C106" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="55" t="s">
+      <c r="B106" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G106" s="54" t="s">
-        <v>384</v>
+      <c r="G106" s="50" t="s">
+        <v>381</v>
       </c>
       <c r="H106" s="29"/>
       <c r="I106" s="29" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="I107" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="13" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B107" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G107" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H108" s="2" t="s">
-        <v>390</v>
+      <c r="H108" s="44" t="s">
+        <v>336</v>
       </c>
       <c r="I108" s="38" t="s">
         <v>88</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I109" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F110" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I109" s="38" t="s">
+      <c r="I110" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="K109" s="39" t="s">
+      <c r="K110" s="39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
+    <row r="111" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="31" t="s">
+      <c r="B111" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="C110" s="31" t="s">
+      <c r="C111" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="51" t="s">
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31" t="s">
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H111" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="I111" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="K111" s="28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>41</v>
+        <v>398</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>336</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K112" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>32</v>
+        <v>400</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="I113" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I114" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J114" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" s="31"/>
-      <c r="H115" s="88" t="s">
-        <v>617</v>
-      </c>
-      <c r="I115" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F115" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="D116" s="29"/>
+        <v>408</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>409</v>
+      </c>
       <c r="E116" s="29"/>
-      <c r="F116" s="51" t="s">
-        <v>32</v>
+      <c r="F116" s="74" t="s">
+        <v>21</v>
       </c>
       <c r="G116" s="31"/>
-      <c r="H116" s="31" t="s">
-        <v>611</v>
+      <c r="H116" s="88" t="s">
+        <v>617</v>
       </c>
       <c r="I116" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I117" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B117" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="I117" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="I118" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H119" s="45" t="s">
-        <v>336</v>
+        <v>415</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="K119" s="28" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>32</v>
+        <v>419</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="H120" s="45" t="s">
         <v>336</v>
@@ -6804,21 +6817,21 @@
         <v>88</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K120" s="28" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>32</v>
@@ -6830,342 +6843,342 @@
         <v>88</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K121" s="28" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H122" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="I122" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="K122" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I122" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="K122" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="I123" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J123" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="31" t="s">
+      <c r="F124" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I124" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="31" t="s">
+      <c r="B125" s="31" t="s">
         <v>430</v>
       </c>
-      <c r="C124" s="31" t="s">
+      <c r="C125" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="52" t="s">
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31" t="s">
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="88" t="s">
+    <row r="126" spans="1:11" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="88" t="s">
+      <c r="B126" s="88" t="s">
         <v>432</v>
       </c>
-      <c r="C125" s="88" t="s">
+      <c r="C126" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="D125" s="88"/>
-      <c r="E125" s="88"/>
-      <c r="F125" s="89" t="s">
+      <c r="D126" s="88"/>
+      <c r="E126" s="88"/>
+      <c r="F126" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G125" s="88"/>
-      <c r="H125" s="88" t="s">
+      <c r="G126" s="88"/>
+      <c r="H126" s="88" t="s">
         <v>613</v>
       </c>
-      <c r="I125" s="88" t="s">
+      <c r="I126" s="88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18" t="s">
+    <row r="127" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B127" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C127" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="19" t="s">
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G126" s="18"/>
-      <c r="I126" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="G127" s="18"/>
       <c r="I127" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>437</v>
+        <v>216</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" s="45" t="s">
-        <v>88</v>
+        <v>217</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>226</v>
+        <v>437</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>32</v>
+        <v>438</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H129" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F130" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H130" s="45" t="s">
-        <v>88</v>
+        <v>227</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>32</v>
+        <v>233</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H131" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>41</v>
+        <v>237</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I132" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>32</v>
+        <v>241</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="I133" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H134" s="45" t="s">
-        <v>88</v>
+        <v>246</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>436</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>28</v>
+        <v>251</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H135" s="45" t="s">
         <v>88</v>
@@ -7174,77 +7187,79 @@
         <v>88</v>
       </c>
       <c r="J135" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18" t="s">
+      <c r="F136" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I136" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B137" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C137" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="22" t="s">
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G136" s="18"/>
-      <c r="I136" s="38" t="s">
+      <c r="G137" s="18"/>
+      <c r="I137" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J137" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K137" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="C137" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H137" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="I137" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K137" s="31"/>
-    </row>
-    <row r="138" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>440</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C138" s="31" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>443</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H138" s="31" t="s">
         <v>616</v>
@@ -7252,191 +7267,189 @@
       <c r="I138" s="31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="K138" s="31"/>
+    </row>
+    <row r="139" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>446</v>
+      <c r="B139" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>448</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>443</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I139" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="K139" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="H139" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="I139" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>443</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I140" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J140" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="B141" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="23" t="s">
+      <c r="F141" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="G141" s="18" t="s">
-        <v>456</v>
+      <c r="G141" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="I141" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J141" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="B142" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="C142" s="18" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>460</v>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>456</v>
       </c>
       <c r="I142" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="I143" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J143" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="23" t="s">
+      <c r="F144" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G144" s="18" t="s">
-        <v>466</v>
+      <c r="G144" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="I144" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J144" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B145" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="C145" s="18" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H145" s="46" t="s">
-        <v>88</v>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>466</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="K145" s="39" t="s">
-        <v>469</v>
+        <v>464</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -7444,13 +7457,13 @@
         <v>467</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>32</v>
+        <v>469</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="H146" s="46" t="s">
         <v>88</v>
@@ -7459,24 +7472,24 @@
         <v>88</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K146" s="28" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="K146" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>21</v>
+        <v>471</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H147" s="46" t="s">
         <v>88</v>
@@ -7485,10 +7498,10 @@
         <v>88</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="K147" s="28" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7496,10 +7509,10 @@
         <v>467</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>21</v>
@@ -7511,21 +7524,21 @@
         <v>88</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>21</v>
@@ -7537,76 +7550,76 @@
         <v>88</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>32</v>
+        <v>478</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H150" s="46" t="s">
-        <v>596</v>
+        <v>88</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K150" s="40" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>21</v>
+        <v>480</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H151" s="46" t="s">
-        <v>88</v>
+        <v>596</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="K151" s="40" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>21</v>
@@ -7618,36 +7631,36 @@
         <v>88</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>32</v>
+        <v>485</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H153" s="46" t="s">
-        <v>597</v>
+        <v>88</v>
       </c>
       <c r="I153" s="38" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K153" s="40" t="s">
-        <v>487</v>
+        <v>484</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7655,183 +7668,189 @@
         <v>467</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>490</v>
+        <v>32</v>
       </c>
       <c r="H154" s="46" t="s">
         <v>597</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K154" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H155" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="I155" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="K155" s="40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F156" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I155" s="38" t="s">
+      <c r="I156" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J155" s="2" t="s">
+      <c r="J156" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="K156" s="2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
+    <row r="157" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="B157" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="C156" s="31" t="s">
+      <c r="C157" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="F156" s="51" t="s">
+      <c r="F157" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H156" s="31" t="s">
+      <c r="H157" s="31" t="s">
         <v>611</v>
       </c>
-      <c r="I156" s="31" t="s">
+      <c r="I157" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F158" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="I157" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="K157" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="I158" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J158" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A159" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B159" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="C159" s="13" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>41</v>
+      <c r="F159" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="I159" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J159" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J160" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K160" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
+    <row r="161" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B160" s="31" t="s">
+      <c r="B161" s="31" t="s">
         <v>506</v>
       </c>
-      <c r="C160" s="31" t="s">
+      <c r="C161" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="F160" s="52" t="s">
+      <c r="F161" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H160" s="31" t="s">
+      <c r="H161" s="31" t="s">
         <v>611</v>
       </c>
-      <c r="I160" s="31" t="s">
+      <c r="I161" s="31" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I161" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7839,10 +7858,10 @@
         <v>467</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>32</v>
@@ -7851,10 +7870,10 @@
         <v>84</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7862,10 +7881,10 @@
         <v>467</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>32</v>
@@ -7874,53 +7893,56 @@
         <v>84</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>41</v>
+        <v>513</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I164" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J164" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B165" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C165" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="F165" s="52" t="s">
+      <c r="F165" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H165" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="I165" s="31" t="s">
-        <v>332</v>
+      <c r="I165" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="166" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -7928,10 +7950,10 @@
         <v>467</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F166" s="52" t="s">
         <v>41</v>
@@ -7940,59 +7962,53 @@
         <v>611</v>
       </c>
       <c r="I166" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="F167" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H167" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="I167" s="31" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H167" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I167" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F168" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H168" s="46" t="s">
+        <v>88</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -8000,10 +8016,10 @@
         <v>467</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>101</v>
@@ -8015,10 +8031,10 @@
         <v>84</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -8026,10 +8042,10 @@
         <v>467</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>101</v>
@@ -8041,108 +8057,111 @@
         <v>84</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F171" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H171" s="92" t="s">
-        <v>621</v>
+        <v>529</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="I171" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>41</v>
+        <v>532</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H172" s="92" t="s">
+        <v>621</v>
       </c>
       <c r="I172" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J172" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I173" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J173" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="K172" s="2" t="s">
+      <c r="K173" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+    <row r="174" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B173" s="31" t="s">
+      <c r="B174" s="31" t="s">
         <v>536</v>
       </c>
-      <c r="C173" s="31" t="s">
+      <c r="C174" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="F173" s="74" t="s">
+      <c r="F174" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="H173" s="46" t="s">
+      <c r="H174" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="I173" s="31" t="s">
+      <c r="I174" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F174" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I174" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J174" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K174" s="2" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8150,22 +8169,22 @@
         <v>467</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>41</v>
+        <v>539</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="I175" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8173,13 +8192,10 @@
         <v>467</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>41</v>
@@ -8188,59 +8204,62 @@
         <v>84</v>
       </c>
       <c r="J176" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="K176" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="31" t="s">
+      <c r="E177" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I177" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="K177" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B177" s="31" t="s">
+      <c r="B178" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="C177" s="31" t="s">
+      <c r="C178" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="F177" s="90" t="s">
+      <c r="F178" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="H177" s="88" t="s">
+      <c r="H178" s="88" t="s">
         <v>620</v>
       </c>
-      <c r="I177" s="85" t="s">
+      <c r="I178" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="J177" s="31" t="s">
+      <c r="J178" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="K177" s="31" t="s">
+      <c r="K178" s="31" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I178" t="s">
-        <v>84</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K178" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8248,48 +8267,45 @@
         <v>467</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I179" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I179" t="s">
         <v>84</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>467</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H180" s="46" t="s">
-        <v>623</v>
+        <v>550</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="K180" s="40" t="s">
-        <v>552</v>
+        <v>549</v>
+      </c>
+      <c r="K180" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -8297,25 +8313,25 @@
         <v>467</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F181" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>88</v>
+        <v>552</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H181" s="46" t="s">
+        <v>623</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="K181" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
+      </c>
+      <c r="K181" s="40" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8323,99 +8339,102 @@
         <v>467</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I182" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K182" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="F183" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I182" s="38" t="s">
+      <c r="I183" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="J183" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K183" s="2" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A183" s="31" t="s">
+    <row r="184" spans="1:11" s="31" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A184" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B183" s="31" t="s">
+      <c r="B184" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="C183" s="31" t="s">
+      <c r="C184" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="F183" s="53" t="s">
+      <c r="F184" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G183" s="31" t="s">
+      <c r="G184" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="I183" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" s="31" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="41" t="s">
-        <v>467</v>
-      </c>
-      <c r="B184" s="41" t="s">
-        <v>560</v>
-      </c>
-      <c r="C184" s="41" t="s">
-        <v>561</v>
-      </c>
-      <c r="D184" s="41"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G184" s="41"/>
       <c r="I184" s="31" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I185" t="s">
-        <v>566</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" s="31" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G185" s="41"/>
+      <c r="I185" s="31" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>565</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>32</v>
@@ -8424,127 +8443,156 @@
         <v>566</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I187" s="38" t="s">
+      <c r="I187" t="s">
+        <v>566</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K187" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I188" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J187" s="2" t="s">
+      <c r="J188" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K188" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="31" t="s">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B189" s="31" t="s">
         <v>572</v>
       </c>
-      <c r="C188" s="31" t="s">
+      <c r="C189" s="31" t="s">
         <v>573</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F189" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I188" s="31" t="s">
+      <c r="I189" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="18" t="s">
+    <row r="190" spans="1:11" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B189" s="18" t="s">
+      <c r="B190" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C190" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D190" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="E189" s="18"/>
-      <c r="F189" s="19" t="s">
+      <c r="E190" s="18"/>
+      <c r="F190" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G189" s="18"/>
-      <c r="I189" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J189" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="K189" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="H190" s="31" t="s">
-        <v>577</v>
-      </c>
+      <c r="G190" s="18"/>
       <c r="I190" s="38" t="s">
         <v>84</v>
       </c>
       <c r="J190" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H191" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="I191" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J191" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K191" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="31" t="s">
+    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B192" s="31" t="s">
+      <c r="B193" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="31" t="s">
+      <c r="C193" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="H192" s="31" t="s">
+      <c r="H193" s="31" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="31"/>
-      <c r="H193" s="31"/>
-      <c r="I193" s="2" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="31"/>
+      <c r="H194" s="31"/>
+      <c r="I194" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J193" s="2" t="s">
+      <c r="J194" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="K194" s="2" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L190" xr:uid="{1B3D194B-0A93-4C02-A02E-B5E5E7355C50}"/>
-  <conditionalFormatting sqref="I53:I75 I97 I92 I86 I88:I89 I145:I155 I157:I159 I161:I164 I167:I172 I126 I117:I123 I107:I109 I111:I114 I174:I182 I139:I141 I185:I187 I189:I190 I36:I51">
+  <autoFilter ref="A1:L191" xr:uid="{1B3D194B-0A93-4C02-A02E-B5E5E7355C50}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="trans"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="I54:I76 I98 I93 I87 I89:I90 I146:I156 I158:I160 I162:I165 I168:I173 I127 I118:I124 I108:I110 I112:I115 I175:I183 I140:I142 I186:I188 I190:I191 I36:I52">
     <cfRule type="containsText" dxfId="75" priority="92" operator="containsText" text="Not Begun">
       <formula>NOT(ISERROR(SEARCH("Not Begun",I36)))</formula>
     </cfRule>
@@ -8555,114 +8603,114 @@
       <formula>NOT(ISERROR(SEARCH("Complete",I36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="H38">
     <cfRule type="containsText" dxfId="72" priority="88" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="71" priority="90" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="70" priority="91" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H42">
     <cfRule type="containsText" dxfId="69" priority="81" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="68" priority="83" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H42)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="67" priority="84" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="79" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="containsText" dxfId="63" priority="73" operator="containsText" text="Not Begun">
+    <cfRule type="containsText" dxfId="66" priority="77" operator="containsText" text="Not Begun">
       <formula>NOT(ISERROR(SEARCH("Not Begun",H49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="75" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="65" priority="79" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",H49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="76" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="64" priority="80" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",H49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H50">
+    <cfRule type="containsText" dxfId="63" priority="73" operator="containsText" text="Not Begun">
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="75" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",H50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="76" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",H50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
     <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="59" priority="71" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H55)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="58" priority="72" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
+  <conditionalFormatting sqref="H57">
     <cfRule type="containsText" dxfId="57" priority="65" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H57)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="55" priority="68" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H56)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H71">
     <cfRule type="containsText" dxfId="54" priority="61" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="53" priority="63" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H71)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="52" priority="64" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H73">
     <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H72)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H72)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H73)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="49" priority="60" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H72)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H75">
     <cfRule type="containsText" dxfId="48" priority="53" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="47" priority="55" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="56" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H74)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
+  <conditionalFormatting sqref="H51">
     <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H51)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="43" priority="52" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H50)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
@@ -8709,37 +8757,37 @@
       <formula>NOT(ISERROR(SEARCH("Complete",I31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:I85">
+  <conditionalFormatting sqref="I78:I86">
     <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",I77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",I78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",I77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",I78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",I77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",I78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I127:I136">
+  <conditionalFormatting sqref="I128:I137">
     <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",I127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",I128)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",I127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",I128)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",I127)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",I128)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I142:I144">
+  <conditionalFormatting sqref="I143:I145">
     <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",I142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",I143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",I142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",I143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",I142)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",I143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
@@ -8753,26 +8801,26 @@
       <formula>NOT(ISERROR(SEARCH("Complete",I35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107">
+  <conditionalFormatting sqref="H108">
     <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H107)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H108)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H107)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H108)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H107)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H108)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H47">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Not Begun">
-      <formula>NOT(ISERROR(SEARCH("Not Begun",H46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Begun",H47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",H46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",H47)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",H46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Complete",H47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8782,8 +8830,8 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="93" operator="containsText" id="{B8E47CDB-BB31-4E77-9772-DD372F97E344}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,I36)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,I36)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8792,12 +8840,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I53:I75 I145:I155 I157:I159 I161:I164 I167:I172 I190 I174:I182 I36:I51</xm:sqref>
+          <xm:sqref>I54:I76 I146:I156 I158:I160 I162:I165 I168:I173 I191 I175:I183 I36:I52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="89" operator="containsText" id="{98E1F053-30D8-48C5-B313-00EE48F27308}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H37)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H38)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8806,12 +8854,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H37</xm:sqref>
+          <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="82" operator="containsText" id="{5F6B7C80-AAA9-42DC-9874-333A9ACDB38B}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H41)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H42)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8820,26 +8868,12 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H41</xm:sqref>
+          <xm:sqref>H42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="78" operator="containsText" id="{A43E3D37-9F2D-4C0F-AEDE-91452C6DF033}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H48)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{486500D8-2BDD-48AD-B54D-9C9AF0E2CB88}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H49)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H49)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8851,79 +8885,9 @@
           <xm:sqref>H49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{91F4CD70-D6B8-438F-A811-924ABDAA863D}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H54)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H54</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{57A2315D-F71A-4346-8415-FED7D327A8C8}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H56)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H56</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{61E0F188-DCFD-4C62-A9DE-B18E7734B8CF}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H70)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H70</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{DE5D10D1-E80D-4BFC-9467-717450776236}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H72)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H72</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{A7759270-CA63-44DB-B78E-F3009774401D}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H74)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H74</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{25336347-765A-486F-A601-B36A72B12F21}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H50)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+          <x14:cfRule type="containsText" priority="74" operator="containsText" id="{486500D8-2BDD-48AD-B54D-9C9AF0E2CB88}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H50)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8935,9 +8899,93 @@
           <xm:sqref>H50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="70" operator="containsText" id="{91F4CD70-D6B8-438F-A811-924ABDAA863D}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H55)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="66" operator="containsText" id="{57A2315D-F71A-4346-8415-FED7D327A8C8}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H57)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H57</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{61E0F188-DCFD-4C62-A9DE-B18E7734B8CF}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H71)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="58" operator="containsText" id="{DE5D10D1-E80D-4BFC-9467-717450776236}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H73)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="54" operator="containsText" id="{A7759270-CA63-44DB-B78E-F3009774401D}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H75)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H75</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="50" operator="containsText" id="{25336347-765A-486F-A601-B36A72B12F21}">
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H51)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{7FD4988B-FB34-4967-9399-0F743A958717}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,I35)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,I35)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8950,8 +8998,8 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="2" operator="containsText" id="{072B65FC-9C81-4219-9DFE-ECD78D59E5E5}">
-            <xm:f>NOT(ISERROR(SEARCH('\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H46)))</xm:f>
-            <xm:f>'\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!,H47)))</xm:f>
+            <xm:f>'d:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -8960,7 +9008,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H46</xm:sqref>
+          <xm:sqref>H47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8970,7 +9018,7 @@
           <x14:formula1>
             <xm:f>'C:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\[Hong Kong EPS Input Data Status (002).xlsx]Field Codes'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I53:I75 I145:I155 I157:I159 I161:I164 I167:I172 I174:I182 I190 I36:I51</xm:sqref>
+          <xm:sqref>I54:I76 I146:I156 I158:I160 I162:I165 I168:I173 I175:I183 I191 I36:I52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A624135A-D2F1-4FD6-980C-23964509C4F1}">
           <x14:formula1>
